--- a/01-Resignation-Predictor/updated_data/updated_data.xlsx
+++ b/01-Resignation-Predictor/updated_data/updated_data.xlsx
@@ -554,7 +554,7 @@
         <v>40</v>
       </c>
       <c r="M2" t="n">
-        <v>2.776180698151951</v>
+        <v>2.778918548939083</v>
       </c>
       <c r="N2" t="n">
         <v>34</v>
@@ -607,7 +607,7 @@
         <v>40</v>
       </c>
       <c r="M3" t="n">
-        <v>1.538672142368241</v>
+        <v>1.541409993155373</v>
       </c>
       <c r="N3" t="n">
         <v>29</v>
@@ -660,7 +660,7 @@
         <v>40</v>
       </c>
       <c r="M4" t="n">
-        <v>1.221081451060917</v>
+        <v>1.223819301848049</v>
       </c>
       <c r="N4" t="n">
         <v>31</v>
@@ -713,7 +713,7 @@
         <v>40</v>
       </c>
       <c r="M5" t="n">
-        <v>2.272416153319644</v>
+        <v>2.275154004106776</v>
       </c>
       <c r="N5" t="n">
         <v>31</v>
@@ -766,7 +766,7 @@
         <v>40</v>
       </c>
       <c r="M6" t="n">
-        <v>5.757700205338809</v>
+        <v>5.760438056125941</v>
       </c>
       <c r="N6" t="n">
         <v>41</v>
@@ -819,7 +819,7 @@
         <v>40</v>
       </c>
       <c r="M7" t="n">
-        <v>4.479123887748118</v>
+        <v>4.48186173853525</v>
       </c>
       <c r="N7" t="n">
         <v>40</v>
@@ -872,7 +872,7 @@
         <v>40</v>
       </c>
       <c r="M8" t="n">
-        <v>1.848049281314168</v>
+        <v>1.850787132101301</v>
       </c>
       <c r="N8" t="n">
         <v>33</v>
@@ -925,7 +925,7 @@
         <v>40</v>
       </c>
       <c r="M9" t="n">
-        <v>2.138261464750171</v>
+        <v>2.140999315537303</v>
       </c>
       <c r="N9" t="n">
         <v>26</v>
@@ -978,7 +978,7 @@
         <v>40</v>
       </c>
       <c r="M10" t="n">
-        <v>2.236824093086927</v>
+        <v>2.239561943874059</v>
       </c>
       <c r="N10" t="n">
         <v>34</v>
@@ -1031,7 +1031,7 @@
         <v>40</v>
       </c>
       <c r="M11" t="n">
-        <v>1.483915126625599</v>
+        <v>1.486652977412731</v>
       </c>
       <c r="N11" t="n">
         <v>29</v>
@@ -1084,7 +1084,7 @@
         <v>40</v>
       </c>
       <c r="M12" t="n">
-        <v>1.776865160848734</v>
+        <v>1.779603011635866</v>
       </c>
       <c r="N12" t="n">
         <v>27</v>
@@ -1137,7 +1137,7 @@
         <v>40</v>
       </c>
       <c r="M13" t="n">
-        <v>2.943189596167009</v>
+        <v>2.945927446954141</v>
       </c>
       <c r="N13" t="n">
         <v>31</v>
@@ -1190,7 +1190,7 @@
         <v>40</v>
       </c>
       <c r="M14" t="n">
-        <v>1.804243668720055</v>
+        <v>1.806981519507187</v>
       </c>
       <c r="N14" t="n">
         <v>31</v>
@@ -1243,7 +1243,7 @@
         <v>40</v>
       </c>
       <c r="M15" t="n">
-        <v>1.952087611225188</v>
+        <v>1.95482546201232</v>
       </c>
       <c r="N15" t="n">
         <v>34</v>
@@ -1296,7 +1296,7 @@
         <v>40</v>
       </c>
       <c r="M16" t="n">
-        <v>2.38466803559206</v>
+        <v>2.387405886379192</v>
       </c>
       <c r="N16" t="n">
         <v>26</v>
@@ -1349,7 +1349,7 @@
         <v>40</v>
       </c>
       <c r="M17" t="n">
-        <v>3.028062970568104</v>
+        <v>3.030800821355236</v>
       </c>
       <c r="N17" t="n">
         <v>34</v>
@@ -1402,7 +1402,7 @@
         <v>40</v>
       </c>
       <c r="M18" t="n">
-        <v>5.349760438056126</v>
+        <v>5.352498288843258</v>
       </c>
       <c r="N18" t="n">
         <v>33</v>
@@ -1455,7 +1455,7 @@
         <v>40</v>
       </c>
       <c r="M19" t="n">
-        <v>1.711156741957563</v>
+        <v>1.713894592744695</v>
       </c>
       <c r="N19" t="n">
         <v>28</v>
@@ -1508,7 +1508,7 @@
         <v>40</v>
       </c>
       <c r="M20" t="n">
-        <v>4.783025325119781</v>
+        <v>4.785763175906913</v>
       </c>
       <c r="N20" t="n">
         <v>38</v>
@@ -1561,7 +1561,7 @@
         <v>40</v>
       </c>
       <c r="M21" t="n">
-        <v>5.442847364818618</v>
+        <v>5.44558521560575</v>
       </c>
       <c r="N21" t="n">
         <v>33</v>
@@ -1614,7 +1614,7 @@
         <v>40</v>
       </c>
       <c r="M22" t="n">
-        <v>5.201916495550993</v>
+        <v>5.204654346338125</v>
       </c>
       <c r="N22" t="n">
         <v>36</v>
@@ -1667,7 +1667,7 @@
         <v>40</v>
       </c>
       <c r="M23" t="n">
-        <v>4.950034223134839</v>
+        <v>4.952772073921971</v>
       </c>
       <c r="N23" t="n">
         <v>38</v>
@@ -1720,7 +1720,7 @@
         <v>40</v>
       </c>
       <c r="M24" t="n">
-        <v>3.783709787816564</v>
+        <v>3.786447638603696</v>
       </c>
       <c r="N24" t="n">
         <v>34</v>
@@ -1773,7 +1773,7 @@
         <v>40</v>
       </c>
       <c r="M25" t="n">
-        <v>2.357289527720739</v>
+        <v>2.360027378507871</v>
       </c>
       <c r="N25" t="n">
         <v>29</v>
@@ -1826,7 +1826,7 @@
         <v>40</v>
       </c>
       <c r="M26" t="n">
-        <v>2.600958247775496</v>
+        <v>2.603696098562629</v>
       </c>
       <c r="N26" t="n">
         <v>31</v>
@@ -1879,7 +1879,7 @@
         <v>40</v>
       </c>
       <c r="M27" t="n">
-        <v>2.329911019849418</v>
+        <v>2.33264887063655</v>
       </c>
       <c r="N27" t="n">
         <v>27</v>
@@ -1932,7 +1932,7 @@
         <v>40</v>
       </c>
       <c r="M28" t="n">
-        <v>2.11088295687885</v>
+        <v>2.113620807665982</v>
       </c>
       <c r="N28" t="n">
         <v>26</v>
@@ -1985,7 +1985,7 @@
         <v>40</v>
       </c>
       <c r="M29" t="n">
-        <v>2.042436687200547</v>
+        <v>2.04517453798768</v>
       </c>
       <c r="N29" t="n">
         <v>28</v>
@@ -2038,7 +2038,7 @@
         <v>40</v>
       </c>
       <c r="M30" t="n">
-        <v>2.650239561943874</v>
+        <v>2.652977412731006</v>
       </c>
       <c r="N30" t="n">
         <v>33</v>
@@ -2091,7 +2091,7 @@
         <v>40</v>
       </c>
       <c r="M31" t="n">
-        <v>2.819986310746065</v>
+        <v>2.822724161533197</v>
       </c>
       <c r="N31" t="n">
         <v>29</v>
@@ -2144,7 +2144,7 @@
         <v>40</v>
       </c>
       <c r="M32" t="n">
-        <v>3.008898015058179</v>
+        <v>3.011635865845312</v>
       </c>
       <c r="N32" t="n">
         <v>30</v>
@@ -2197,7 +2197,7 @@
         <v>40</v>
       </c>
       <c r="M33" t="n">
-        <v>1.946611909650924</v>
+        <v>1.949349760438056</v>
       </c>
       <c r="N33" t="n">
         <v>26</v>
@@ -2250,7 +2250,7 @@
         <v>40</v>
       </c>
       <c r="M34" t="n">
-        <v>2.683093771389459</v>
+        <v>2.685831622176591</v>
       </c>
       <c r="N34" t="n">
         <v>32</v>
@@ -2303,7 +2303,7 @@
         <v>40</v>
       </c>
       <c r="M35" t="n">
-        <v>3.197809719370294</v>
+        <v>3.200547570157426</v>
       </c>
       <c r="N35" t="n">
         <v>30</v>
@@ -2356,7 +2356,7 @@
         <v>40</v>
       </c>
       <c r="M36" t="n">
-        <v>2.636550308008214</v>
+        <v>2.639288158795346</v>
       </c>
       <c r="N36" t="n">
         <v>34</v>
@@ -2409,7 +2409,7 @@
         <v>40</v>
       </c>
       <c r="M37" t="n">
-        <v>3.258042436687201</v>
+        <v>3.260780287474333</v>
       </c>
       <c r="N37" t="n">
         <v>31</v>
@@ -2462,7 +2462,7 @@
         <v>40</v>
       </c>
       <c r="M38" t="n">
-        <v>1.122518822724162</v>
+        <v>1.125256673511294</v>
       </c>
       <c r="N38" t="n">
         <v>23</v>
@@ -2515,7 +2515,7 @@
         <v>40</v>
       </c>
       <c r="M39" t="n">
-        <v>1.286789869952088</v>
+        <v>1.28952772073922</v>
       </c>
       <c r="N39" t="n">
         <v>31</v>
@@ -2568,7 +2568,7 @@
         <v>40</v>
       </c>
       <c r="M40" t="n">
-        <v>1.344284736481862</v>
+        <v>1.347022587268994</v>
       </c>
       <c r="N40" t="n">
         <v>25</v>
@@ -2621,7 +2621,7 @@
         <v>40</v>
       </c>
       <c r="M41" t="n">
-        <v>1.385352498288843</v>
+        <v>1.388090349075975</v>
       </c>
       <c r="N41" t="n">
         <v>30</v>
@@ -2674,7 +2674,7 @@
         <v>40</v>
       </c>
       <c r="M42" t="n">
-        <v>1.221081451060917</v>
+        <v>1.223819301848049</v>
       </c>
       <c r="N42" t="n">
         <v>26</v>
@@ -2727,7 +2727,7 @@
         <v>40</v>
       </c>
       <c r="M43" t="n">
-        <v>1.23750855578371</v>
+        <v>1.240246406570842</v>
       </c>
       <c r="N43" t="n">
         <v>30</v>
@@ -2780,7 +2780,7 @@
         <v>40</v>
       </c>
       <c r="M44" t="n">
-        <v>1.357973990417522</v>
+        <v>1.360711841204654</v>
       </c>
       <c r="N44" t="n">
         <v>28</v>
@@ -2833,7 +2833,7 @@
         <v>40</v>
       </c>
       <c r="M45" t="n">
-        <v>4.197125256673512</v>
+        <v>4.199863107460644</v>
       </c>
       <c r="N45" t="n">
         <v>34</v>
@@ -2886,7 +2886,7 @@
         <v>40</v>
       </c>
       <c r="M46" t="n">
-        <v>3.668720054757016</v>
+        <v>3.671457905544148</v>
       </c>
       <c r="N46" t="n">
         <v>33</v>
@@ -2939,7 +2939,7 @@
         <v>40</v>
       </c>
       <c r="M47" t="n">
-        <v>3.923340177960301</v>
+        <v>3.926078028747433</v>
       </c>
       <c r="N47" t="n">
         <v>31</v>
@@ -2992,7 +2992,7 @@
         <v>40</v>
       </c>
       <c r="M48" t="n">
-        <v>4.235455167693361</v>
+        <v>4.238193018480493</v>
       </c>
       <c r="N48" t="n">
         <v>34</v>
@@ -3045,7 +3045,7 @@
         <v>40</v>
       </c>
       <c r="M49" t="n">
-        <v>3.841204654346338</v>
+        <v>3.84394250513347</v>
       </c>
       <c r="N49" t="n">
         <v>36</v>
@@ -3098,7 +3098,7 @@
         <v>40</v>
       </c>
       <c r="M50" t="n">
-        <v>3.7782340862423</v>
+        <v>3.780971937029432</v>
       </c>
       <c r="N50" t="n">
         <v>32</v>
@@ -3151,7 +3151,7 @@
         <v>40</v>
       </c>
       <c r="M51" t="n">
-        <v>4.188911704312115</v>
+        <v>4.191649555099247</v>
       </c>
       <c r="N51" t="n">
         <v>36</v>
@@ -3204,7 +3204,7 @@
         <v>40</v>
       </c>
       <c r="M52" t="n">
-        <v>4.136892539356605</v>
+        <v>4.139630390143737</v>
       </c>
       <c r="N52" t="n">
         <v>33</v>
@@ -3257,7 +3257,7 @@
         <v>40</v>
       </c>
       <c r="M53" t="n">
-        <v>1.842573579739904</v>
+        <v>1.845311430527036</v>
       </c>
       <c r="N53" t="n">
         <v>30</v>
@@ -3310,7 +3310,7 @@
         <v>40</v>
       </c>
       <c r="M54" t="n">
-        <v>2.091718001368926</v>
+        <v>2.094455852156058</v>
       </c>
       <c r="N54" t="n">
         <v>28</v>
@@ -3363,7 +3363,7 @@
         <v>40</v>
       </c>
       <c r="M55" t="n">
-        <v>1.552361396303901</v>
+        <v>1.555099247091034</v>
       </c>
       <c r="N55" t="n">
         <v>28</v>
@@ -3416,7 +3416,7 @@
         <v>40</v>
       </c>
       <c r="M56" t="n">
-        <v>2.206707734428474</v>
+        <v>2.209445585215606</v>
       </c>
       <c r="N56" t="n">
         <v>26</v>
@@ -3469,7 +3469,7 @@
         <v>40</v>
       </c>
       <c r="M57" t="n">
-        <v>2.483230663928816</v>
+        <v>2.485968514715948</v>
       </c>
       <c r="N57" t="n">
         <v>31</v>
@@ -3522,7 +3522,7 @@
         <v>40</v>
       </c>
       <c r="M58" t="n">
-        <v>2.176591375770021</v>
+        <v>2.179329226557153</v>
       </c>
       <c r="N58" t="n">
         <v>27</v>
@@ -3575,10 +3575,10 @@
         <v>40</v>
       </c>
       <c r="M59" t="n">
-        <v>1.683778234086242</v>
+        <v>1.686516084873374</v>
       </c>
       <c r="N59" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O59" t="n">
         <v>0</v>
@@ -3628,7 +3628,7 @@
         <v>40</v>
       </c>
       <c r="M60" t="n">
-        <v>1.815195071868583</v>
+        <v>1.817932922655715</v>
       </c>
       <c r="N60" t="n">
         <v>39</v>
@@ -3681,7 +3681,7 @@
         <v>40</v>
       </c>
       <c r="M61" t="n">
-        <v>5.656399726214921</v>
+        <v>5.659137577002054</v>
       </c>
       <c r="N61" t="n">
         <v>34</v>
@@ -3734,7 +3734,7 @@
         <v>40</v>
       </c>
       <c r="M62" t="n">
-        <v>3.537303216974675</v>
+        <v>3.540041067761807</v>
       </c>
       <c r="N62" t="n">
         <v>33</v>
@@ -3787,7 +3787,7 @@
         <v>40</v>
       </c>
       <c r="M63" t="n">
-        <v>4.468172484599589</v>
+        <v>4.470910335386721</v>
       </c>
       <c r="N63" t="n">
         <v>37</v>
@@ -3840,7 +3840,7 @@
         <v>40</v>
       </c>
       <c r="M64" t="n">
-        <v>5.02943189596167</v>
+        <v>5.032169746748802</v>
       </c>
       <c r="N64" t="n">
         <v>38</v>
@@ -3893,7 +3893,7 @@
         <v>40</v>
       </c>
       <c r="M65" t="n">
-        <v>3.3347022587269</v>
+        <v>3.337440109514032</v>
       </c>
       <c r="N65" t="n">
         <v>35</v>
@@ -3946,7 +3946,7 @@
         <v>40</v>
       </c>
       <c r="M66" t="n">
-        <v>4.824093086926762</v>
+        <v>4.826830937713894</v>
       </c>
       <c r="N66" t="n">
         <v>38</v>
@@ -3999,7 +3999,7 @@
         <v>40</v>
       </c>
       <c r="M67" t="n">
-        <v>5.045859000684462</v>
+        <v>5.048596851471594</v>
       </c>
       <c r="N67" t="n">
         <v>31</v>
@@ -4052,7 +4052,7 @@
         <v>40</v>
       </c>
       <c r="M68" t="n">
-        <v>2.551676933607118</v>
+        <v>2.55441478439425</v>
       </c>
       <c r="N68" t="n">
         <v>30</v>
@@ -4105,7 +4105,7 @@
         <v>40</v>
       </c>
       <c r="M69" t="n">
-        <v>2.617385352498289</v>
+        <v>2.620123203285421</v>
       </c>
       <c r="N69" t="n">
         <v>35</v>
@@ -4158,7 +4158,7 @@
         <v>40</v>
       </c>
       <c r="M70" t="n">
-        <v>2.757015742642026</v>
+        <v>2.759753593429158</v>
       </c>
       <c r="N70" t="n">
         <v>33</v>
@@ -4211,7 +4211,7 @@
         <v>40</v>
       </c>
       <c r="M71" t="n">
-        <v>3.197809719370294</v>
+        <v>3.200547570157426</v>
       </c>
       <c r="N71" t="n">
         <v>31</v>
@@ -4264,7 +4264,7 @@
         <v>40</v>
       </c>
       <c r="M72" t="n">
-        <v>3.345653661875428</v>
+        <v>3.34839151266256</v>
       </c>
       <c r="N72" t="n">
         <v>29</v>
@@ -4317,7 +4317,7 @@
         <v>40</v>
       </c>
       <c r="M73" t="n">
-        <v>3.572895277207392</v>
+        <v>3.575633127994524</v>
       </c>
       <c r="N73" t="n">
         <v>33</v>
@@ -4370,7 +4370,7 @@
         <v>40</v>
       </c>
       <c r="M74" t="n">
-        <v>3.767282683093772</v>
+        <v>3.770020533880904</v>
       </c>
       <c r="N74" t="n">
         <v>36</v>
@@ -4423,7 +4423,7 @@
         <v>40</v>
       </c>
       <c r="M75" t="n">
-        <v>5.574264202600959</v>
+        <v>5.577002053388091</v>
       </c>
       <c r="N75" t="n">
         <v>30</v>
@@ -4476,7 +4476,7 @@
         <v>40</v>
       </c>
       <c r="M76" t="n">
-        <v>3.852156057494867</v>
+        <v>3.854893908281999</v>
       </c>
       <c r="N76" t="n">
         <v>34</v>
@@ -4529,7 +4529,7 @@
         <v>40</v>
       </c>
       <c r="M77" t="n">
-        <v>2.510609171800137</v>
+        <v>2.513347022587269</v>
       </c>
       <c r="N77" t="n">
         <v>27</v>
@@ -4582,7 +4582,7 @@
         <v>40</v>
       </c>
       <c r="M78" t="n">
-        <v>2.757015742642026</v>
+        <v>2.759753593429158</v>
       </c>
       <c r="N78" t="n">
         <v>29</v>
@@ -4635,7 +4635,7 @@
         <v>40</v>
       </c>
       <c r="M79" t="n">
-        <v>4.531143052703627</v>
+        <v>4.533880903490759</v>
       </c>
       <c r="N79" t="n">
         <v>31</v>
@@ -4688,7 +4688,7 @@
         <v>40</v>
       </c>
       <c r="M80" t="n">
-        <v>4.019164955509924</v>
+        <v>4.021902806297057</v>
       </c>
       <c r="N80" t="n">
         <v>36</v>
@@ -4741,7 +4741,7 @@
         <v>40</v>
       </c>
       <c r="M81" t="n">
-        <v>5.122518822724161</v>
+        <v>5.125256673511293</v>
       </c>
       <c r="N81" t="n">
         <v>36</v>
@@ -4794,7 +4794,7 @@
         <v>40</v>
       </c>
       <c r="M82" t="n">
-        <v>4.235455167693361</v>
+        <v>4.238193018480493</v>
       </c>
       <c r="N82" t="n">
         <v>36</v>
@@ -4847,7 +4847,7 @@
         <v>40</v>
       </c>
       <c r="M83" t="n">
-        <v>2.962354551676933</v>
+        <v>2.965092402464066</v>
       </c>
       <c r="N83" t="n">
         <v>28</v>
@@ -4900,7 +4900,7 @@
         <v>40</v>
       </c>
       <c r="M84" t="n">
-        <v>2.461327857631759</v>
+        <v>2.464065708418891</v>
       </c>
       <c r="N84" t="n">
         <v>32</v>
@@ -4953,7 +4953,7 @@
         <v>40</v>
       </c>
       <c r="M85" t="n">
-        <v>3.852156057494867</v>
+        <v>3.854893908281999</v>
       </c>
       <c r="N85" t="n">
         <v>32</v>
@@ -5006,7 +5006,7 @@
         <v>40</v>
       </c>
       <c r="M86" t="n">
-        <v>5.273100616016428</v>
+        <v>5.27583846680356</v>
       </c>
       <c r="N86" t="n">
         <v>32</v>
@@ -5059,7 +5059,7 @@
         <v>40</v>
       </c>
       <c r="M87" t="n">
-        <v>4.041067761806982</v>
+        <v>4.043805612594114</v>
       </c>
       <c r="N87" t="n">
         <v>35</v>
@@ -5112,7 +5112,7 @@
         <v>40</v>
       </c>
       <c r="M88" t="n">
-        <v>4.082135523613963</v>
+        <v>4.084873374401095</v>
       </c>
       <c r="N88" t="n">
         <v>32</v>
@@ -5165,7 +5165,7 @@
         <v>40</v>
       </c>
       <c r="M89" t="n">
-        <v>4.186173853524983</v>
+        <v>4.188911704312115</v>
       </c>
       <c r="N89" t="n">
         <v>33</v>
@@ -5218,7 +5218,7 @@
         <v>40</v>
       </c>
       <c r="M90" t="n">
-        <v>3.123887748117728</v>
+        <v>3.12662559890486</v>
       </c>
       <c r="N90" t="n">
         <v>31</v>
@@ -5271,7 +5271,7 @@
         <v>40</v>
       </c>
       <c r="M91" t="n">
-        <v>2.036960985626283</v>
+        <v>2.039698836413415</v>
       </c>
       <c r="N91" t="n">
         <v>25</v>
@@ -5324,7 +5324,7 @@
         <v>40</v>
       </c>
       <c r="M92" t="n">
-        <v>4.681724845995893</v>
+        <v>4.684462696783025</v>
       </c>
       <c r="N92" t="n">
         <v>32</v>
@@ -5377,7 +5377,7 @@
         <v>40</v>
       </c>
       <c r="M93" t="n">
-        <v>1.544147843942505</v>
+        <v>1.546885694729637</v>
       </c>
       <c r="N93" t="n">
         <v>26</v>
@@ -5430,7 +5430,7 @@
         <v>40</v>
       </c>
       <c r="M94" t="n">
-        <v>5.489390828199863</v>
+        <v>5.492128678986996</v>
       </c>
       <c r="N94" t="n">
         <v>40</v>
@@ -5483,7 +5483,7 @@
         <v>40</v>
       </c>
       <c r="M95" t="n">
-        <v>4.616016427104722</v>
+        <v>4.618754277891855</v>
       </c>
       <c r="N95" t="n">
         <v>30</v>
@@ -5536,7 +5536,7 @@
         <v>40</v>
       </c>
       <c r="M96" t="n">
-        <v>1.864476386036961</v>
+        <v>1.867214236824093</v>
       </c>
       <c r="N96" t="n">
         <v>32</v>
@@ -5589,7 +5589,7 @@
         <v>40</v>
       </c>
       <c r="M97" t="n">
-        <v>1.678302532511978</v>
+        <v>1.68104038329911</v>
       </c>
       <c r="N97" t="n">
         <v>28</v>
@@ -5642,7 +5642,7 @@
         <v>40</v>
       </c>
       <c r="M98" t="n">
-        <v>2.691307323750856</v>
+        <v>2.694045174537988</v>
       </c>
       <c r="N98" t="n">
         <v>28</v>
@@ -5695,7 +5695,7 @@
         <v>40</v>
       </c>
       <c r="M99" t="n">
-        <v>2.12457221081451</v>
+        <v>2.127310061601643</v>
       </c>
       <c r="N99" t="n">
         <v>31</v>
@@ -5748,7 +5748,7 @@
         <v>40</v>
       </c>
       <c r="M100" t="n">
-        <v>1.609856262833676</v>
+        <v>1.612594113620808</v>
       </c>
       <c r="N100" t="n">
         <v>24</v>
@@ -5801,7 +5801,7 @@
         <v>40</v>
       </c>
       <c r="M101" t="n">
-        <v>3.934291581108829</v>
+        <v>3.937029431895962</v>
       </c>
       <c r="N101" t="n">
         <v>35</v>
